--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>294639.1874343483</v>
+        <v>292934.8352976368</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12538906.74437159</v>
+        <v>12538906.7443716</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,16 +671,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>50.29171516770224</v>
+        <v>205.4093399017307</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.94968045359975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>58.82659439808642</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,25 +978,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>151.5207388353108</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>13.4513371371172</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1221,10 +1221,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>196.9783797120185</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>94.70310683785799</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.3140662372058</v>
+        <v>362.3140662372057</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>344.8531163447327</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2632661944082</v>
+        <v>334.2632661944081</v>
       </c>
       <c r="E11" t="n">
-        <v>80.34431862291689</v>
+        <v>361.5105946459869</v>
       </c>
       <c r="F11" t="n">
-        <v>386.4562703154367</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>392.5197736437243</v>
+        <v>88.84045097156729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8530230257433</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302592</v>
+        <v>98.94929161302582</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.7491374664342</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T11" t="n">
-        <v>192.3312167192738</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059508</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>307.3324830438601</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W11" t="n">
-        <v>328.8211932911382</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X11" t="n">
-        <v>349.3113252521943</v>
+        <v>349.3113252521941</v>
       </c>
       <c r="Y11" t="n">
-        <v>365.8181632297788</v>
+        <v>365.8181632297787</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I12" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S12" t="n">
         <v>148.1971745240615</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>159.4122047556624</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>127.7233100897004</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0141872202944</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>100.7699688356066</v>
+        <v>125.0012725966563</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>132.3826335244177</v>
+        <v>132.3826335244176</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>202.9965309021384</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8414332948986</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>231.7178678975532</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.1032229103162</v>
+        <v>266.1032229103161</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>362.3140662372057</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>344.8531163447327</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>334.2632661944081</v>
       </c>
       <c r="E14" t="n">
-        <v>161.357715762286</v>
+        <v>361.5105946459869</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>386.4562703154365</v>
       </c>
       <c r="G14" t="n">
         <v>392.5197736437242</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8530230257434</v>
+        <v>294.8530230257433</v>
       </c>
       <c r="I14" t="n">
-        <v>98.94929161302586</v>
+        <v>98.94929161302579</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>192.3312167192737</v>
       </c>
       <c r="U14" t="n">
-        <v>230.7368224059508</v>
+        <v>230.7368224059507</v>
       </c>
       <c r="V14" t="n">
-        <v>307.3324830438601</v>
+        <v>93.62725023225335</v>
       </c>
       <c r="W14" t="n">
-        <v>328.8211932911382</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X14" t="n">
-        <v>349.3113252521942</v>
+        <v>349.3113252521941</v>
       </c>
       <c r="Y14" t="n">
         <v>365.8181632297787</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556625</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0141872202943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.5111589513637</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.1522558959535</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.2101389041964</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>185.1231296267669</v>
+        <v>185.1231296267668</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W16" t="n">
-        <v>266.1032229103162</v>
+        <v>131.7047470051539</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.4552713144874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.9225718776361</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C17" t="n">
         <v>283.461621985163</v>
       </c>
       <c r="D17" t="n">
-        <v>272.8717718348385</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E17" t="n">
-        <v>300.1191002864173</v>
+        <v>300.1191002864172</v>
       </c>
       <c r="F17" t="n">
         <v>325.0647759558669</v>
       </c>
       <c r="G17" t="n">
-        <v>331.1282792841546</v>
+        <v>331.1282792841545</v>
       </c>
       <c r="H17" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I17" t="n">
-        <v>37.55779725345619</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.35764310686449</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T17" t="n">
-        <v>130.9397223597041</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U17" t="n">
         <v>169.3453280463811</v>
       </c>
       <c r="V17" t="n">
-        <v>245.9409886842904</v>
+        <v>245.9409886842903</v>
       </c>
       <c r="W17" t="n">
         <v>267.4296989315685</v>
@@ -1910,7 +1910,7 @@
         <v>287.9198308926245</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4266688702091</v>
+        <v>304.426668870209</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I18" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S18" t="n">
         <v>148.1971745240615</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.02071039609278</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278332</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236784</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E19" t="n">
-        <v>64.62269286072465</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F19" t="n">
-        <v>63.60977823708673</v>
+        <v>3.553444327495143</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179403</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484799</v>
+        <v>70.99113916484798</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638384</v>
+        <v>41.76076153638382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462669</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7316352671972</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T19" t="n">
-        <v>141.6050365425688</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U19" t="n">
-        <v>202.8564393161474</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V19" t="n">
-        <v>170.3263735379835</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W19" t="n">
-        <v>204.7117285507465</v>
+        <v>204.7117285507464</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.7733835662503</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2081,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C20" t="n">
-        <v>283.461621985163</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D20" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E20" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F20" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G20" t="n">
         <v>331.1282792841545</v>
@@ -2099,7 +2099,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I20" t="n">
-        <v>37.55779725345617</v>
+        <v>37.5577972534561</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686444</v>
+        <v>73.35764310686437</v>
       </c>
       <c r="T20" t="n">
-        <v>130.939722359704</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U20" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V20" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W20" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X20" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y20" t="n">
         <v>304.426668870209</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>98.02071039609267</v>
       </c>
       <c r="C22" t="n">
-        <v>85.43555131278329</v>
+        <v>85.4355513127832</v>
       </c>
       <c r="D22" t="n">
-        <v>66.80420323236781</v>
+        <v>66.80420323236773</v>
       </c>
       <c r="E22" t="n">
-        <v>64.62269286072463</v>
+        <v>64.62269286072454</v>
       </c>
       <c r="F22" t="n">
-        <v>63.6097782370867</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179401</v>
+        <v>85.11966459179392</v>
       </c>
       <c r="H22" t="n">
-        <v>70.99113916484798</v>
+        <v>70.99113916484788</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638382</v>
+        <v>41.76076153638374</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3474697183451809</v>
+        <v>47.81864454462658</v>
       </c>
       <c r="S22" t="n">
         <v>123.7316352671971</v>
@@ -2293,16 +2293,16 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U22" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V22" t="n">
         <v>170.3263735379834</v>
       </c>
       <c r="W22" t="n">
-        <v>204.7117285507464</v>
+        <v>122.8296215654608</v>
       </c>
       <c r="X22" t="n">
-        <v>143.8983856031926</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y22" t="n">
         <v>136.7733835662502</v>
@@ -2336,7 +2336,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I23" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686446</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T23" t="n">
         <v>130.939722359704</v>
@@ -2384,7 +2384,7 @@
         <v>287.9198308926245</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4266688702097</v>
+        <v>304.426668870209</v>
       </c>
     </row>
     <row r="24">
@@ -2488,13 +2488,13 @@
         <v>63.6097782370867</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179399</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H25" t="n">
         <v>70.99113916484798</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.76076153638382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462666</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S25" t="n">
         <v>123.7316352671971</v>
@@ -2533,7 +2533,7 @@
         <v>204.4499389353289</v>
       </c>
       <c r="V25" t="n">
-        <v>170.3263735379834</v>
+        <v>24.83448831561073</v>
       </c>
       <c r="W25" t="n">
         <v>204.7117285507464</v>
@@ -2542,7 +2542,7 @@
         <v>143.8983856031926</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.04225988025954</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>300.922571877636</v>
+        <v>300.9225718776361</v>
       </c>
       <c r="C26" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D26" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348385</v>
       </c>
       <c r="E26" t="n">
-        <v>300.1191002864172</v>
+        <v>300.1191002864173</v>
       </c>
       <c r="F26" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G26" t="n">
-        <v>331.1282792841545</v>
+        <v>331.1282792841546</v>
       </c>
       <c r="H26" t="n">
-        <v>233.4615286661736</v>
+        <v>233.4615286661737</v>
       </c>
       <c r="I26" t="n">
-        <v>37.55779725345612</v>
+        <v>37.55779725345622</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.3576431068644</v>
+        <v>73.35764310686449</v>
       </c>
       <c r="T26" t="n">
-        <v>130.9397223597039</v>
+        <v>130.9397223597041</v>
       </c>
       <c r="U26" t="n">
-        <v>169.345328046381</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V26" t="n">
-        <v>245.9409886842903</v>
+        <v>245.9409886842904</v>
       </c>
       <c r="W26" t="n">
-        <v>267.4296989315684</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X26" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y26" t="n">
-        <v>304.426668870209</v>
+        <v>304.4266688702091</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.0207103960927</v>
+        <v>98.0207103960928</v>
       </c>
       <c r="C28" t="n">
-        <v>6.747869322777478</v>
+        <v>85.43555131278333</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>66.80420323236785</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072457</v>
+        <v>64.62269286072467</v>
       </c>
       <c r="F28" t="n">
-        <v>63.60977823708664</v>
+        <v>63.60977823708674</v>
       </c>
       <c r="G28" t="n">
-        <v>85.11966459179395</v>
+        <v>85.11966459179405</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484791</v>
+        <v>70.99113916484802</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638377</v>
+        <v>41.76076153638387</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462661</v>
+        <v>47.81864454462669</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7316352671971</v>
+        <v>123.7316352671972</v>
       </c>
       <c r="T28" t="n">
-        <v>141.6050365425687</v>
+        <v>141.6050365425688</v>
       </c>
       <c r="U28" t="n">
-        <v>204.4499389353288</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V28" t="n">
-        <v>170.3263735379834</v>
+        <v>170.3263735379835</v>
       </c>
       <c r="W28" t="n">
-        <v>204.7117285507464</v>
+        <v>203.1182289315645</v>
       </c>
       <c r="X28" t="n">
-        <v>143.8983856031925</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.7733835662502</v>
+        <v>136.7733835662503</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2792,16 @@
         <v>300.922571877636</v>
       </c>
       <c r="C29" t="n">
-        <v>283.4616219851629</v>
+        <v>283.461621985163</v>
       </c>
       <c r="D29" t="n">
-        <v>272.8717718348383</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E29" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F29" t="n">
-        <v>325.0647759558668</v>
+        <v>325.0647759558669</v>
       </c>
       <c r="G29" t="n">
         <v>331.1282792841545</v>
@@ -2810,7 +2810,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345612</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.3576431068644</v>
+        <v>73.35764310686444</v>
       </c>
       <c r="T29" t="n">
-        <v>130.9397223597039</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U29" t="n">
-        <v>169.345328046381</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V29" t="n">
         <v>245.9409886842903</v>
       </c>
       <c r="W29" t="n">
-        <v>267.4296989315684</v>
+        <v>267.4296989315685</v>
       </c>
       <c r="X29" t="n">
-        <v>287.9198308926244</v>
+        <v>287.9198308926245</v>
       </c>
       <c r="Y29" t="n">
         <v>304.426668870209</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.0207103960927</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278323</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E31" t="n">
-        <v>64.62269286072457</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F31" t="n">
-        <v>63.60977823708664</v>
+        <v>63.6097782370867</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179395</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484791</v>
+        <v>70.99113916484798</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76076153638377</v>
+        <v>41.76076153638382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.81864454462661</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7316352671971</v>
+        <v>63.35941463661726</v>
       </c>
       <c r="T31" t="n">
-        <v>62.91735455256361</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U31" t="n">
-        <v>204.4499389353288</v>
+        <v>204.4499389353289</v>
       </c>
       <c r="V31" t="n">
         <v>170.3263735379834</v>
@@ -3013,7 +3013,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X31" t="n">
-        <v>143.8983856031925</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y31" t="n">
         <v>136.7733835662502</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>294.8199291298098</v>
+        <v>294.8199291298099</v>
       </c>
       <c r="C32" t="n">
         <v>277.3589792373368</v>
@@ -3035,19 +3035,19 @@
         <v>266.7691290870122</v>
       </c>
       <c r="E32" t="n">
-        <v>294.016457538591</v>
+        <v>294.0164575385911</v>
       </c>
       <c r="F32" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G32" t="n">
-        <v>325.0256365363283</v>
+        <v>325.0256365363284</v>
       </c>
       <c r="H32" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>31.45515450562996</v>
+        <v>35.0808831893513</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.422481774376166</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.25500035903825</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T32" t="n">
         <v>124.8370796118778</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1565978322256</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V32" t="n">
-        <v>242.0415928458095</v>
+        <v>239.8383459364642</v>
       </c>
       <c r="W32" t="n">
-        <v>261.3270561837422</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>281.8171881447983</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.91806764826654</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495708</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D34" t="n">
-        <v>60.7015604845416</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289842</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926049</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G34" t="n">
-        <v>79.0170218439678</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702177</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855762</v>
+        <v>35.65811878855766</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680044</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S34" t="n">
-        <v>117.6289925193709</v>
+        <v>117.628992519371</v>
       </c>
       <c r="T34" t="n">
         <v>135.5023937947425</v>
@@ -3244,16 +3244,16 @@
         <v>198.3472961875027</v>
       </c>
       <c r="V34" t="n">
-        <v>164.2237307901572</v>
+        <v>164.2237307901573</v>
       </c>
       <c r="W34" t="n">
-        <v>198.6090858029202</v>
+        <v>198.6090858029203</v>
       </c>
       <c r="X34" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.670740818424</v>
+        <v>130.6707408184241</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X35" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447981</v>
       </c>
       <c r="Y35" t="n">
         <v>298.3240261223829</v>
@@ -3436,7 +3436,7 @@
         <v>57.50713548926055</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396784</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H37" t="n">
         <v>64.88849641702183</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680051</v>
+        <v>41.7160017968005</v>
       </c>
       <c r="S37" t="n">
         <v>117.628992519371</v>
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450563001</v>
+        <v>31.45515450563002</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903831</v>
       </c>
       <c r="T38" t="n">
         <v>124.8370796118779</v>
@@ -3560,7 +3560,7 @@
         <v>163.2426852985549</v>
       </c>
       <c r="V38" t="n">
-        <v>239.8383459364642</v>
+        <v>239.8383459364637</v>
       </c>
       <c r="W38" t="n">
         <v>261.3270561837423</v>
@@ -3600,7 +3600,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I39" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S39" t="n">
         <v>148.1971745240615</v>
@@ -3676,10 +3676,10 @@
         <v>79.01702184396785</v>
       </c>
       <c r="H40" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855766</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680051</v>
+        <v>41.7160017968005</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
@@ -3803,7 +3803,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X41" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447981</v>
       </c>
       <c r="Y41" t="n">
         <v>298.3240261223829</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680051</v>
+        <v>41.7160017968005</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
@@ -3952,7 +3952,7 @@
         <v>135.5023937947426</v>
       </c>
       <c r="U43" t="n">
-        <v>198.3472961875023</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V43" t="n">
         <v>164.2237307901573</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>294.81992912981</v>
+        <v>294.8199291298099</v>
       </c>
       <c r="C44" t="n">
-        <v>277.3589792373369</v>
+        <v>277.3589792373368</v>
       </c>
       <c r="D44" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E44" t="n">
-        <v>294.0164575385912</v>
+        <v>294.0164575385911</v>
       </c>
       <c r="F44" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G44" t="n">
-        <v>325.0256365363285</v>
+        <v>325.0256365363284</v>
       </c>
       <c r="H44" t="n">
-        <v>227.3588859183476</v>
+        <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450563009</v>
+        <v>31.45515450563001</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903838</v>
+        <v>67.25500035903828</v>
       </c>
       <c r="T44" t="n">
-        <v>124.837079611878</v>
+        <v>124.8370796118779</v>
       </c>
       <c r="U44" t="n">
-        <v>163.242685298555</v>
+        <v>163.2426852985549</v>
       </c>
       <c r="V44" t="n">
-        <v>239.8383459364643</v>
+        <v>239.8383459364642</v>
       </c>
       <c r="W44" t="n">
-        <v>261.3270561837424</v>
+        <v>261.3270561837423</v>
       </c>
       <c r="X44" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y44" t="n">
-        <v>298.324026122383</v>
+        <v>298.3240261223829</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.91806764826667</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495721</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454173</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289855</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926062</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396792</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H46" t="n">
-        <v>64.88849641701985</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855774</v>
+        <v>35.65811878855766</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680058</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S46" t="n">
-        <v>117.6289925193711</v>
+        <v>117.628992519371</v>
       </c>
       <c r="T46" t="n">
-        <v>135.5023937947427</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U46" t="n">
-        <v>198.3472961875028</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V46" t="n">
-        <v>164.2237307901574</v>
+        <v>164.2237307901573</v>
       </c>
       <c r="W46" t="n">
-        <v>198.6090858029204</v>
+        <v>198.6090858029203</v>
       </c>
       <c r="X46" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.6707408184242</v>
+        <v>130.6707408184241</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.5536560184564</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5536560184564</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5536560184564</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>104.5536560184564</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>97.60815526925295</v>
+        <v>470.2141014732327</v>
       </c>
       <c r="G2" t="n">
-        <v>82.15084464790441</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>348.0024326625565</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>104.5536560184564</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>104.5536560184564</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>104.5536560184564</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>104.5536560184564</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291.8877337080889</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C3" t="n">
-        <v>291.8877337080889</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D3" t="n">
-        <v>291.8877337080889</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E3" t="n">
-        <v>132.6502787026334</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4416,16 +4416,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4437,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>555.4877027295624</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>312.0389260854624</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X3" t="n">
-        <v>312.0389260854624</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y3" t="n">
-        <v>291.8877337080889</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.6974622895962</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.8157010833278</v>
+        <v>398.0001399844777</v>
       </c>
       <c r="C6" t="n">
-        <v>165.8157010833278</v>
+        <v>398.0001399844777</v>
       </c>
       <c r="D6" t="n">
-        <v>165.8157010833278</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4656,40 +4656,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>811.0059041618374</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>608.8193095206034</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>608.8193095206034</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>373.6672012888606</v>
+        <v>849.3004168341106</v>
       </c>
       <c r="W6" t="n">
-        <v>373.6672012888606</v>
+        <v>605.8516401900106</v>
       </c>
       <c r="X6" t="n">
-        <v>165.8157010833278</v>
+        <v>398.0001399844777</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.8157010833278</v>
+        <v>398.0001399844777</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4753,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>761.6974622895962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>565.0413275456638</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="C9" t="n">
-        <v>565.0413275456638</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="D9" t="n">
-        <v>416.1069178844125</v>
+        <v>408.3031853286819</v>
       </c>
       <c r="E9" t="n">
-        <v>256.869462878957</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
         <v>110.334904905842</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>765.089095195466</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>765.089095195466</v>
       </c>
       <c r="V9" t="n">
-        <v>660.701031422288</v>
+        <v>765.089095195466</v>
       </c>
       <c r="W9" t="n">
-        <v>660.701031422288</v>
+        <v>765.089095195466</v>
       </c>
       <c r="X9" t="n">
-        <v>565.0413275456638</v>
+        <v>557.2375949899332</v>
       </c>
       <c r="Y9" t="n">
-        <v>565.0413275456638</v>
+        <v>557.2375949899332</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
         <v>41.77557929797318</v>
@@ -5002,10 +5002,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1379.057110433342</v>
+        <v>1612.124607813092</v>
       </c>
       <c r="C11" t="n">
-        <v>1379.057110433342</v>
+        <v>1263.788126656796</v>
       </c>
       <c r="D11" t="n">
-        <v>1041.417447610708</v>
+        <v>926.1484638341617</v>
       </c>
       <c r="E11" t="n">
-        <v>960.2615702138221</v>
+        <v>560.9862470200336</v>
       </c>
       <c r="F11" t="n">
-        <v>569.9017012083305</v>
+        <v>560.9862470200336</v>
       </c>
       <c r="G11" t="n">
-        <v>173.4170813661847</v>
+        <v>471.2484177558242</v>
       </c>
       <c r="H11" t="n">
-        <v>173.4170813661847</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="I11" t="n">
         <v>73.46830195908778</v>
       </c>
       <c r="J11" t="n">
-        <v>260.2054441404282</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K11" t="n">
-        <v>660.8208179075381</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L11" t="n">
         <v>1210.096241442436</v>
@@ -5069,22 +5069,22 @@
         <v>3537.304858089304</v>
       </c>
       <c r="T11" t="n">
-        <v>3343.030901807209</v>
+        <v>3343.03090180721</v>
       </c>
       <c r="U11" t="n">
-        <v>3109.963404427461</v>
+        <v>3343.03090180721</v>
       </c>
       <c r="V11" t="n">
-        <v>2799.526552868006</v>
+        <v>3032.594050247755</v>
       </c>
       <c r="W11" t="n">
-        <v>2467.383933382008</v>
+        <v>2700.451430761757</v>
       </c>
       <c r="X11" t="n">
-        <v>2114.544210905044</v>
+        <v>2347.611708284793</v>
       </c>
       <c r="Y11" t="n">
-        <v>1745.030914713348</v>
+        <v>1978.098412093097</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J12" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="K12" t="n">
-        <v>518.4857520746643</v>
+        <v>400.9597691519543</v>
       </c>
       <c r="L12" t="n">
-        <v>653.1108991091197</v>
+        <v>902.7168580368342</v>
       </c>
       <c r="M12" t="n">
-        <v>829.5689640126358</v>
+        <v>1540.22293605285</v>
       </c>
       <c r="N12" t="n">
-        <v>1459.960876960276</v>
+        <v>2210.308916382868</v>
       </c>
       <c r="O12" t="n">
-        <v>2006.542958788865</v>
+        <v>2366.967302127495</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.220199306442</v>
+        <v>2473.366401691534</v>
       </c>
       <c r="Q12" t="n">
         <v>2657.402498082636</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>436.2630389089045</v>
+        <v>462.4654900507791</v>
       </c>
       <c r="C13" t="n">
-        <v>436.2630389089045</v>
+        <v>333.4520455157282</v>
       </c>
       <c r="D13" t="n">
-        <v>436.2630389089045</v>
+        <v>333.4520455157282</v>
       </c>
       <c r="E13" t="n">
-        <v>308.9759811106273</v>
+        <v>333.4520455157282</v>
       </c>
       <c r="F13" t="n">
-        <v>207.188133801934</v>
+        <v>207.1881338019339</v>
       </c>
       <c r="G13" t="n">
-        <v>207.188133801934</v>
+        <v>207.1881338019339</v>
       </c>
       <c r="H13" t="n">
         <v>73.46830195908778</v>
@@ -5197,52 +5197,52 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814349</v>
+        <v>75.45401965814359</v>
       </c>
       <c r="K13" t="n">
-        <v>195.5491741164732</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L13" t="n">
-        <v>399.1026573432033</v>
+        <v>399.1026573432036</v>
       </c>
       <c r="M13" t="n">
-        <v>623.011473645985</v>
+        <v>623.0114736459856</v>
       </c>
       <c r="N13" t="n">
-        <v>847.5115364327544</v>
+        <v>847.5115364327551</v>
       </c>
       <c r="O13" t="n">
-        <v>1040.400604995801</v>
+        <v>1040.400604995802</v>
       </c>
       <c r="P13" t="n">
-        <v>1184.847502163547</v>
+        <v>1184.847502163548</v>
       </c>
       <c r="Q13" t="n">
         <v>1207.639325881398</v>
       </c>
       <c r="R13" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="S13" t="n">
-        <v>1207.639325881398</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="T13" t="n">
-        <v>1207.639325881398</v>
+        <v>892.2790533497473</v>
       </c>
       <c r="U13" t="n">
-        <v>939.1126255835202</v>
+        <v>892.2790533497473</v>
       </c>
       <c r="V13" t="n">
-        <v>705.0541731617493</v>
+        <v>892.2790533497473</v>
       </c>
       <c r="W13" t="n">
-        <v>436.2630389089045</v>
+        <v>623.4879190969027</v>
       </c>
       <c r="X13" t="n">
-        <v>436.2630389089045</v>
+        <v>623.4879190969027</v>
       </c>
       <c r="Y13" t="n">
-        <v>436.2630389089045</v>
+        <v>623.4879190969027</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1379.057110433342</v>
+        <v>1960.894786240224</v>
       </c>
       <c r="C14" t="n">
-        <v>1030.720629277047</v>
+        <v>1960.894786240224</v>
       </c>
       <c r="D14" t="n">
-        <v>1030.720629277047</v>
+        <v>1623.255123417589</v>
       </c>
       <c r="E14" t="n">
-        <v>867.7330375979699</v>
+        <v>1258.092906603461</v>
       </c>
       <c r="F14" t="n">
-        <v>867.7330375979699</v>
+        <v>867.7330375979698</v>
       </c>
       <c r="G14" t="n">
-        <v>471.2484177558242</v>
+        <v>471.2484177558243</v>
       </c>
       <c r="H14" t="n">
         <v>173.4170813661846</v>
@@ -5279,7 +5279,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K14" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075381</v>
       </c>
       <c r="L14" t="n">
         <v>1210.096241442436</v>
@@ -5291,7 +5291,7 @@
         <v>2461.184977863255</v>
       </c>
       <c r="O14" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P14" t="n">
         <v>3430.660101634156</v>
@@ -5312,16 +5312,16 @@
         <v>3109.963404427461</v>
       </c>
       <c r="V14" t="n">
-        <v>2799.526552868006</v>
+        <v>3015.390424394881</v>
       </c>
       <c r="W14" t="n">
-        <v>2467.383933382008</v>
+        <v>2683.247804908883</v>
       </c>
       <c r="X14" t="n">
-        <v>2114.544210905044</v>
+        <v>2330.408082431919</v>
       </c>
       <c r="Y14" t="n">
-        <v>1745.030914713348</v>
+        <v>1960.894786240224</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J15" t="n">
-        <v>190.9942848817978</v>
+        <v>164.8011549870384</v>
       </c>
       <c r="K15" t="n">
-        <v>518.4857520746643</v>
+        <v>492.2926221799049</v>
       </c>
       <c r="L15" t="n">
-        <v>1020.242840959544</v>
+        <v>626.9177692143603</v>
       </c>
       <c r="M15" t="n">
         <v>1264.423847230376</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>348.7464294052071</v>
+        <v>177.6624998337879</v>
       </c>
       <c r="C16" t="n">
-        <v>348.7464294052071</v>
+        <v>177.6624998337879</v>
       </c>
       <c r="D16" t="n">
-        <v>348.7464294052071</v>
+        <v>177.6624998337879</v>
       </c>
       <c r="E16" t="n">
-        <v>221.4593716069299</v>
+        <v>177.6624998337879</v>
       </c>
       <c r="F16" t="n">
-        <v>221.4593716069299</v>
+        <v>177.6624998337879</v>
       </c>
       <c r="G16" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337879</v>
       </c>
       <c r="H16" t="n">
-        <v>73.46830195908778</v>
+        <v>177.6624998337879</v>
       </c>
       <c r="I16" t="n">
         <v>73.46830195908778</v>
@@ -5437,49 +5437,49 @@
         <v>75.45401965814355</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164733</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L16" t="n">
-        <v>399.1026573432034</v>
+        <v>399.1026573432036</v>
       </c>
       <c r="M16" t="n">
-        <v>623.0114736459852</v>
+        <v>623.0114736459856</v>
       </c>
       <c r="N16" t="n">
-        <v>847.5115364327548</v>
+        <v>847.5115364327552</v>
       </c>
       <c r="O16" t="n">
-        <v>1040.400604995801</v>
+        <v>1040.400604995802</v>
       </c>
       <c r="P16" t="n">
         <v>1184.847502163548</v>
       </c>
       <c r="Q16" t="n">
-        <v>1207.639325881398</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="R16" t="n">
-        <v>1097.326054260998</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="S16" t="n">
-        <v>910.3329940319404</v>
+        <v>1020.646265652341</v>
       </c>
       <c r="T16" t="n">
-        <v>910.3329940319404</v>
+        <v>1020.646265652341</v>
       </c>
       <c r="U16" t="n">
-        <v>910.3329940319404</v>
+        <v>752.1195653544639</v>
       </c>
       <c r="V16" t="n">
-        <v>910.3329940319404</v>
+        <v>518.061112932693</v>
       </c>
       <c r="W16" t="n">
-        <v>641.5418597790958</v>
+        <v>385.0260149476892</v>
       </c>
       <c r="X16" t="n">
-        <v>641.5418597790958</v>
+        <v>177.6624998337879</v>
       </c>
       <c r="Y16" t="n">
-        <v>509.7688584513308</v>
+        <v>177.6624998337879</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C17" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D17" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E17" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053348</v>
+        <v>681.6982062053343</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274009</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H17" t="n">
         <v>111.4054709019728</v>
@@ -5516,7 +5516,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K17" t="n">
-        <v>660.8208179075381</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L17" t="n">
         <v>1210.096241442436</v>
@@ -5525,10 +5525,10 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N17" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O17" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P17" t="n">
         <v>3430.660101634156</v>
@@ -5540,25 +5540,25 @@
         <v>3673.415097954389</v>
       </c>
       <c r="S17" t="n">
-        <v>3599.316468553515</v>
+        <v>3599.316468553516</v>
       </c>
       <c r="T17" t="n">
         <v>3467.054122735633</v>
       </c>
       <c r="U17" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V17" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W17" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y17" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J18" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="K18" t="n">
-        <v>518.4857520746643</v>
+        <v>139.1391845095015</v>
       </c>
       <c r="L18" t="n">
-        <v>1020.242840959544</v>
+        <v>640.8962733943814</v>
       </c>
       <c r="M18" t="n">
-        <v>1196.70090586306</v>
+        <v>1278.402351410397</v>
       </c>
       <c r="N18" t="n">
-        <v>1459.960876960276</v>
+        <v>1473.939381140297</v>
       </c>
       <c r="O18" t="n">
-        <v>2006.542958788865</v>
+        <v>2020.521462968886</v>
       </c>
       <c r="P18" t="n">
-        <v>2428.220199306442</v>
+        <v>2442.198703486463</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.402498082636</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>556.6438483590759</v>
+        <v>409.6823481344554</v>
       </c>
       <c r="C19" t="n">
-        <v>470.3453116794969</v>
+        <v>409.6823481344554</v>
       </c>
       <c r="D19" t="n">
-        <v>402.866318515489</v>
+        <v>342.2033549704475</v>
       </c>
       <c r="E19" t="n">
-        <v>337.5908711814236</v>
+        <v>276.9279076363822</v>
       </c>
       <c r="F19" t="n">
-        <v>273.3385699318411</v>
+        <v>273.3385699318417</v>
       </c>
       <c r="G19" t="n">
-        <v>187.3591107482107</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H19" t="n">
         <v>115.6508893695765</v>
@@ -5674,13 +5674,13 @@
         <v>136.2315990741175</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L19" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911256</v>
       </c>
       <c r="M19" t="n">
-        <v>866.1217913098812</v>
+        <v>866.1217913098815</v>
       </c>
       <c r="N19" t="n">
         <v>1151.399433512625</v>
@@ -5704,19 +5704,19 @@
         <v>1377.541459841117</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.635965582382</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.589123624823</v>
+        <v>998.979528049892</v>
       </c>
       <c r="W19" t="n">
-        <v>793.8095998361903</v>
+        <v>792.200004261259</v>
       </c>
       <c r="X19" t="n">
-        <v>793.8095998361903</v>
+        <v>646.8480996115695</v>
       </c>
       <c r="Y19" t="n">
-        <v>655.6546669409879</v>
+        <v>508.6931667163673</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1875.149994147037</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D20" t="n">
         <v>1313.197071096531</v>
       </c>
       <c r="E20" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053347</v>
+        <v>681.6982062053353</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274009</v>
+        <v>347.2251968274006</v>
       </c>
       <c r="H20" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019727</v>
       </c>
       <c r="I20" t="n">
         <v>73.46830195908778</v>
@@ -5786,16 +5786,16 @@
         <v>3295.998235820096</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X20" t="n">
         <v>2486.613873690315</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.112187962831</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J21" t="n">
-        <v>73.46830195908778</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K21" t="n">
-        <v>400.9597691519543</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L21" t="n">
-        <v>902.7168580368342</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.22293605285</v>
+        <v>1472.400362088867</v>
       </c>
       <c r="N21" t="n">
-        <v>2057.861087902729</v>
+        <v>1667.937391818767</v>
       </c>
       <c r="O21" t="n">
         <v>2214.519473647356</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>556.6438483590754</v>
+        <v>492.3915471094928</v>
       </c>
       <c r="C22" t="n">
-        <v>470.3453116794967</v>
+        <v>406.0930104299138</v>
       </c>
       <c r="D22" t="n">
-        <v>402.8663185154888</v>
+        <v>338.614017265906</v>
       </c>
       <c r="E22" t="n">
-        <v>337.5908711814236</v>
+        <v>273.3385699318408</v>
       </c>
       <c r="F22" t="n">
-        <v>273.3385699318411</v>
+        <v>273.3385699318408</v>
       </c>
       <c r="G22" t="n">
-        <v>187.3591107482108</v>
+        <v>187.3591107482106</v>
       </c>
       <c r="H22" t="n">
         <v>115.6508893695764</v>
@@ -5908,52 +5908,52 @@
         <v>73.46830195908778</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K22" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484216</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911258</v>
       </c>
       <c r="M22" t="n">
-        <v>866.1217913098814</v>
+        <v>866.1217913098816</v>
       </c>
       <c r="N22" t="n">
         <v>1151.399433512625</v>
       </c>
       <c r="O22" t="n">
-        <v>1405.066081491645</v>
+        <v>1405.066081491646</v>
       </c>
       <c r="P22" t="n">
         <v>1610.290558075366</v>
       </c>
       <c r="Q22" t="n">
-        <v>1693.85996120919</v>
+        <v>1693.859961209191</v>
       </c>
       <c r="R22" t="n">
-        <v>1693.50898169571</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S22" t="n">
-        <v>1568.527531930864</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T22" t="n">
-        <v>1425.492141483825</v>
+        <v>1377.541459841118</v>
       </c>
       <c r="U22" t="n">
-        <v>1218.977051650159</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V22" t="n">
-        <v>1046.9302096926</v>
+        <v>998.9795280498931</v>
       </c>
       <c r="W22" t="n">
-        <v>840.1506859039671</v>
+        <v>874.9092032362963</v>
       </c>
       <c r="X22" t="n">
-        <v>694.7987812542776</v>
+        <v>729.5572985866069</v>
       </c>
       <c r="Y22" t="n">
-        <v>556.6438483590754</v>
+        <v>591.4023656914046</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1588.825123454953</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E23" t="n">
         <v>1010.046464746614</v>
       </c>
       <c r="F23" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053343</v>
       </c>
       <c r="G23" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H23" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019724</v>
       </c>
       <c r="I23" t="n">
         <v>73.46830195908778</v>
@@ -6014,7 +6014,7 @@
         <v>3673.415097954389</v>
       </c>
       <c r="S23" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T23" t="n">
         <v>3467.054122735633</v>
@@ -6023,10 +6023,10 @@
         <v>3295.998235820096</v>
       </c>
       <c r="V23" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W23" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X23" t="n">
         <v>2486.613873690315</v>
@@ -6069,13 +6069,13 @@
         <v>190.9942848817978</v>
       </c>
       <c r="K24" t="n">
-        <v>518.4857520746643</v>
+        <v>256.6651674322115</v>
       </c>
       <c r="L24" t="n">
-        <v>1020.242840959544</v>
+        <v>758.4222563170914</v>
       </c>
       <c r="M24" t="n">
-        <v>1196.70090586306</v>
+        <v>1264.423847230376</v>
       </c>
       <c r="N24" t="n">
         <v>1459.960876960276</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>514.4612609485871</v>
+        <v>556.6438483590758</v>
       </c>
       <c r="C25" t="n">
-        <v>428.162724269008</v>
+        <v>470.3453116794968</v>
       </c>
       <c r="D25" t="n">
-        <v>360.6837311050002</v>
+        <v>402.8663185154889</v>
       </c>
       <c r="E25" t="n">
-        <v>295.4082837709349</v>
+        <v>337.5908711814236</v>
       </c>
       <c r="F25" t="n">
-        <v>231.1559825213524</v>
+        <v>273.3385699318411</v>
       </c>
       <c r="G25" t="n">
-        <v>145.1765233377221</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H25" t="n">
-        <v>73.46830195908778</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I25" t="n">
         <v>73.46830195908778</v>
@@ -6148,13 +6148,13 @@
         <v>136.2315990741175</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L25" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M25" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N25" t="n">
         <v>1151.399433512625</v>
@@ -6169,28 +6169,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
-        <v>1645.558300053002</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S25" t="n">
         <v>1520.576850288156</v>
       </c>
       <c r="T25" t="n">
-        <v>1377.541459841117</v>
+        <v>1377.541459841116</v>
       </c>
       <c r="U25" t="n">
         <v>1171.026370007451</v>
       </c>
       <c r="V25" t="n">
-        <v>998.9795280498918</v>
+        <v>1145.941028274513</v>
       </c>
       <c r="W25" t="n">
-        <v>792.200004261259</v>
+        <v>939.1615044858797</v>
       </c>
       <c r="X25" t="n">
-        <v>646.8480996115694</v>
+        <v>793.8095998361903</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.4720795304989</v>
+        <v>655.6546669409877</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1875.149994147037</v>
+        <v>1875.149994147038</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.19707109653</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E26" t="n">
         <v>1010.046464746614</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053341</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G26" t="n">
-        <v>347.2251968274004</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019728</v>
       </c>
       <c r="I26" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J26" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K26" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L26" t="n">
         <v>1210.096241442436</v>
@@ -6245,31 +6245,31 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q26" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="R26" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="S26" t="n">
-        <v>3599.316468553514</v>
+        <v>3599.316468553516</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.054122735631</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U26" t="n">
-        <v>3295.998235820095</v>
+        <v>3295.998235820097</v>
       </c>
       <c r="V26" t="n">
-        <v>3047.572994724852</v>
+        <v>3047.572994724854</v>
       </c>
       <c r="W26" t="n">
-        <v>2777.441985703066</v>
+        <v>2777.441985703068</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.613873690314</v>
+        <v>2486.613873690316</v>
       </c>
       <c r="Y26" t="n">
-        <v>2179.11218796283</v>
+        <v>2179.112187962832</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I27" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J27" t="n">
         <v>190.9942848817978</v>
@@ -6309,16 +6309,16 @@
         <v>518.4857520746643</v>
       </c>
       <c r="L27" t="n">
-        <v>1020.242840959544</v>
+        <v>857.5706556517425</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.347543314339</v>
+        <v>1495.076733667758</v>
       </c>
       <c r="N27" t="n">
-        <v>1849.884573044239</v>
+        <v>2165.162713997776</v>
       </c>
       <c r="O27" t="n">
-        <v>2006.542958788865</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P27" t="n">
         <v>2428.220199306442</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.6823481344558</v>
+        <v>556.6438483590762</v>
       </c>
       <c r="C28" t="n">
-        <v>402.8663185154886</v>
+        <v>470.345311679497</v>
       </c>
       <c r="D28" t="n">
-        <v>402.8663185154886</v>
+        <v>402.8663185154891</v>
       </c>
       <c r="E28" t="n">
-        <v>337.5908711814234</v>
+        <v>337.5908711814237</v>
       </c>
       <c r="F28" t="n">
-        <v>273.3385699318409</v>
+        <v>273.3385699318412</v>
       </c>
       <c r="G28" t="n">
-        <v>187.3591107482107</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H28" t="n">
-        <v>115.6508893695764</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I28" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J28" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911256</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M28" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098811</v>
       </c>
       <c r="N28" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O28" t="n">
-        <v>1405.066081491646</v>
+        <v>1405.066081491645</v>
       </c>
       <c r="P28" t="n">
-        <v>1610.290558075366</v>
+        <v>1610.290558075365</v>
       </c>
       <c r="Q28" t="n">
         <v>1693.85996120919</v>
       </c>
       <c r="R28" t="n">
-        <v>1645.558300053002</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S28" t="n">
-        <v>1520.576850288156</v>
+        <v>1520.576850288155</v>
       </c>
       <c r="T28" t="n">
-        <v>1377.541459841118</v>
+        <v>1377.541459841116</v>
       </c>
       <c r="U28" t="n">
-        <v>1171.026370007452</v>
+        <v>1171.026370007451</v>
       </c>
       <c r="V28" t="n">
-        <v>998.979528049893</v>
+        <v>998.9795280498915</v>
       </c>
       <c r="W28" t="n">
-        <v>792.2000042612602</v>
+        <v>793.8095998361905</v>
       </c>
       <c r="X28" t="n">
-        <v>646.8480996115708</v>
+        <v>793.8095998361905</v>
       </c>
       <c r="Y28" t="n">
-        <v>508.6931667163676</v>
+        <v>655.6546669409881</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>1875.149994147037</v>
       </c>
       <c r="C29" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053351</v>
+        <v>681.6982062053343</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274013</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4054709019727</v>
+        <v>111.4054709019724</v>
       </c>
       <c r="I29" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J29" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K29" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L29" t="n">
         <v>1210.096241442436</v>
@@ -6482,10 +6482,10 @@
         <v>3430.660101634156</v>
       </c>
       <c r="Q29" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="R29" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="S29" t="n">
         <v>3599.316468553515</v>
@@ -6537,7 +6537,7 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I30" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J30" t="n">
         <v>190.9942848817978</v>
@@ -6552,7 +6552,7 @@
         <v>1196.70090586306</v>
       </c>
       <c r="N30" t="n">
-        <v>1459.960876960276</v>
+        <v>1849.884573044239</v>
       </c>
       <c r="O30" t="n">
         <v>2006.542958788865</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>489.1648551950676</v>
+        <v>470.6643891754455</v>
       </c>
       <c r="C31" t="n">
-        <v>402.8663185154886</v>
+        <v>384.3658524958665</v>
       </c>
       <c r="D31" t="n">
-        <v>402.8663185154886</v>
+        <v>316.8868593318586</v>
       </c>
       <c r="E31" t="n">
-        <v>337.5908711814234</v>
+        <v>251.6114119977933</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3385699318409</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="G31" t="n">
-        <v>187.3591107482107</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H31" t="n">
-        <v>115.6508893695764</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I31" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J31" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911256</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M31" t="n">
-        <v>866.1217913098816</v>
+        <v>866.121791309881</v>
       </c>
       <c r="N31" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O31" t="n">
-        <v>1405.066081491646</v>
+        <v>1405.066081491645</v>
       </c>
       <c r="P31" t="n">
         <v>1610.290558075366</v>
@@ -6643,28 +6643,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R31" t="n">
-        <v>1645.558300053002</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S31" t="n">
-        <v>1520.576850288156</v>
+        <v>1581.558891329145</v>
       </c>
       <c r="T31" t="n">
-        <v>1457.023966901728</v>
+        <v>1438.523500882106</v>
       </c>
       <c r="U31" t="n">
-        <v>1250.508877068063</v>
+        <v>1232.008411048441</v>
       </c>
       <c r="V31" t="n">
-        <v>1078.462035110504</v>
+        <v>1059.961569090882</v>
       </c>
       <c r="W31" t="n">
-        <v>871.6825113218713</v>
+        <v>853.1820453022492</v>
       </c>
       <c r="X31" t="n">
-        <v>726.3306066721818</v>
+        <v>707.8301406525597</v>
       </c>
       <c r="Y31" t="n">
-        <v>588.1756737769795</v>
+        <v>569.6752077573574</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1831.999994919983</v>
+        <v>1835.662347125763</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.839409831764</v>
+        <v>1555.501762037544</v>
       </c>
       <c r="D32" t="n">
-        <v>1282.375643077206</v>
+        <v>1286.037995282986</v>
       </c>
       <c r="E32" t="n">
-        <v>985.389322331155</v>
+        <v>989.0516745369341</v>
       </c>
       <c r="F32" t="n">
-        <v>663.2053493937401</v>
+        <v>666.8677015995193</v>
       </c>
       <c r="G32" t="n">
-        <v>334.8966256196711</v>
+        <v>338.5589778254502</v>
       </c>
       <c r="H32" t="n">
-        <v>105.2411852981079</v>
+        <v>108.9035375038871</v>
       </c>
       <c r="I32" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J32" t="n">
-        <v>260.2054441404282</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K32" t="n">
-        <v>660.8208179075378</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L32" t="n">
         <v>1210.096241442436</v>
@@ -6716,34 +6716,34 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P32" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q32" t="n">
         <v>3673.415097954388</v>
       </c>
       <c r="R32" t="n">
-        <v>3671.97824767724</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S32" t="n">
-        <v>3604.043903880232</v>
+        <v>3605.48075415738</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.945843666214</v>
+        <v>3479.382693943362</v>
       </c>
       <c r="U32" t="n">
-        <v>3224.25231050235</v>
+        <v>3314.49109263169</v>
       </c>
       <c r="V32" t="n">
-        <v>2979.76585308234</v>
+        <v>3072.230137140312</v>
       </c>
       <c r="W32" t="n">
-        <v>2715.799129664419</v>
+        <v>2719.461481870198</v>
       </c>
       <c r="X32" t="n">
-        <v>2431.135303255532</v>
+        <v>2434.797655461311</v>
       </c>
       <c r="Y32" t="n">
-        <v>2129.797903131912</v>
+        <v>2133.460255337692</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I33" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J33" t="n">
         <v>190.9942848817978</v>
       </c>
       <c r="K33" t="n">
-        <v>518.4857520746642</v>
+        <v>518.4857520746643</v>
       </c>
       <c r="L33" t="n">
         <v>1020.242840959544</v>
       </c>
       <c r="M33" t="n">
-        <v>1264.423847230376</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N33" t="n">
         <v>1459.960876960276</v>
@@ -6835,43 +6835,43 @@
         <v>513.4938491320222</v>
       </c>
       <c r="C34" t="n">
-        <v>433.359598056308</v>
+        <v>433.3595980563079</v>
       </c>
       <c r="D34" t="n">
-        <v>372.044890496165</v>
+        <v>372.0448904961648</v>
       </c>
       <c r="E34" t="n">
-        <v>312.9337287659645</v>
+        <v>312.9337287659644</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202469</v>
+        <v>254.8457131202466</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404814</v>
+        <v>175.0305395404811</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4866037657116</v>
+        <v>109.4866037657117</v>
       </c>
       <c r="I34" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944655</v>
+        <v>142.2732153944654</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1875655891173</v>
+        <v>329.1875655891171</v>
       </c>
       <c r="L34" t="n">
-        <v>599.5602445521694</v>
+        <v>599.560244552169</v>
       </c>
       <c r="M34" t="n">
-        <v>890.288256591273</v>
+        <v>890.2882565912728</v>
       </c>
       <c r="N34" t="n">
         <v>1181.607515114364</v>
       </c>
       <c r="O34" t="n">
-        <v>1441.315779413732</v>
+        <v>1441.315779413733</v>
       </c>
       <c r="P34" t="n">
         <v>1652.581872317801</v>
@@ -6880,10 +6880,10 @@
         <v>1742.192891771973</v>
       </c>
       <c r="R34" t="n">
-        <v>1700.055516219649</v>
+        <v>1700.05551621965</v>
       </c>
       <c r="S34" t="n">
-        <v>1581.238352058668</v>
+        <v>1581.238352058669</v>
       </c>
       <c r="T34" t="n">
         <v>1444.367247215494</v>
@@ -6892,16 +6892,16 @@
         <v>1244.016442985694</v>
       </c>
       <c r="V34" t="n">
-        <v>1078.133886631999</v>
+        <v>1078.133886632</v>
       </c>
       <c r="W34" t="n">
-        <v>877.5186484472313</v>
+        <v>877.5186484472316</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014067</v>
+        <v>738.3310294014068</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100692</v>
+        <v>606.3403821100693</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1830.11296871472</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C35" t="n">
-        <v>1549.952383626501</v>
+        <v>1549.9523836265</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.488616871943</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E35" t="n">
-        <v>983.5022961258912</v>
+        <v>983.5022961258906</v>
       </c>
       <c r="F35" t="n">
-        <v>661.3183231884763</v>
+        <v>661.3183231884756</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0095994144071</v>
+        <v>333.0095994144065</v>
       </c>
       <c r="H35" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I35" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J35" t="n">
-        <v>258.3184179351637</v>
+        <v>165.8541338771919</v>
       </c>
       <c r="K35" t="n">
-        <v>658.9337917022733</v>
+        <v>566.4695076443015</v>
       </c>
       <c r="L35" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M35" t="n">
-        <v>1743.526219378419</v>
+        <v>1743.526219378418</v>
       </c>
       <c r="N35" t="n">
         <v>2366.833667600018</v>
@@ -6953,7 +6953,7 @@
         <v>2910.217578206718</v>
       </c>
       <c r="P35" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q35" t="n">
         <v>3579.063787691152</v>
@@ -6968,19 +6968,19 @@
         <v>3385.031383680126</v>
       </c>
       <c r="U35" t="n">
-        <v>3220.139782368455</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.878826877077</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W35" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X35" t="n">
-        <v>2429.248277050268</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y35" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I36" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J36" t="n">
-        <v>189.1072586765331</v>
+        <v>189.107258676533</v>
       </c>
       <c r="K36" t="n">
-        <v>516.5987258693996</v>
+        <v>516.5987258693995</v>
       </c>
       <c r="L36" t="n">
         <v>1018.355814754279</v>
       </c>
       <c r="M36" t="n">
-        <v>1262.536821025112</v>
+        <v>1194.813879657795</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.073850755012</v>
+        <v>1847.997546838974</v>
       </c>
       <c r="O36" t="n">
         <v>2004.655932583601</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.606822926758</v>
+        <v>511.6068229267576</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510437</v>
+        <v>431.4725718510433</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642909005</v>
+        <v>370.1578642909002</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025607001</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F37" t="n">
-        <v>252.9586869149823</v>
+        <v>252.958686914982</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1435133352167</v>
+        <v>173.1435133352165</v>
       </c>
       <c r="H37" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I37" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892008</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838525</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L37" t="n">
         <v>597.6732183469044</v>
@@ -7132,13 +7132,13 @@
         <v>1076.246860426735</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419672</v>
+        <v>875.6316222419669</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961425</v>
+        <v>736.4440031961421</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.453355904805</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
     <row r="38">
@@ -7157,31 +7157,31 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258906</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884756</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144064</v>
+        <v>333.0095994144065</v>
       </c>
       <c r="H38" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I38" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J38" t="n">
-        <v>165.8541338771919</v>
+        <v>258.3184179351637</v>
       </c>
       <c r="K38" t="n">
-        <v>566.4695076443016</v>
+        <v>566.4695076443015</v>
       </c>
       <c r="L38" t="n">
         <v>1115.7449311792</v>
       </c>
       <c r="M38" t="n">
-        <v>1743.526219378419</v>
+        <v>1743.526219378418</v>
       </c>
       <c r="N38" t="n">
         <v>2366.833667600018</v>
@@ -7190,7 +7190,7 @@
         <v>2910.217578206718</v>
       </c>
       <c r="P38" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q38" t="n">
         <v>3579.063787691152</v>
@@ -7248,28 +7248,28 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I39" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J39" t="n">
-        <v>189.1072586765331</v>
+        <v>189.107258676533</v>
       </c>
       <c r="K39" t="n">
-        <v>254.7781412269468</v>
+        <v>516.5987258693995</v>
       </c>
       <c r="L39" t="n">
-        <v>756.5352301118268</v>
+        <v>651.2238729038548</v>
       </c>
       <c r="M39" t="n">
-        <v>1394.041308127843</v>
+        <v>1262.536821025112</v>
       </c>
       <c r="N39" t="n">
-        <v>1981.32850656704</v>
+        <v>1458.073850755012</v>
       </c>
       <c r="O39" t="n">
-        <v>2527.910588395629</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P39" t="n">
-        <v>2634.309687959668</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q39" t="n">
         <v>2655.515471877372</v>
@@ -7324,34 +7324,34 @@
         <v>173.1435133352163</v>
       </c>
       <c r="H40" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I40" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3861891892004</v>
+        <v>140.3861891892009</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3005393838521</v>
+        <v>327.3005393838526</v>
       </c>
       <c r="L40" t="n">
-        <v>597.6732183469042</v>
+        <v>597.6732183469046</v>
       </c>
       <c r="M40" t="n">
-        <v>888.401230386008</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N40" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O40" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P40" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q40" t="n">
-        <v>1740.305865566708</v>
+        <v>1740.305865566709</v>
       </c>
       <c r="R40" t="n">
         <v>1698.168490014385</v>
@@ -7394,19 +7394,19 @@
         <v>1280.488616871942</v>
       </c>
       <c r="E41" t="n">
-        <v>983.502296125891</v>
+        <v>983.5022961258906</v>
       </c>
       <c r="F41" t="n">
-        <v>661.318323188476</v>
+        <v>661.3183231884756</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0095994144069</v>
+        <v>333.0095994144065</v>
       </c>
       <c r="H41" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I41" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J41" t="n">
         <v>258.3184179351637</v>
@@ -7418,16 +7418,16 @@
         <v>1208.209215237171</v>
       </c>
       <c r="M41" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378418</v>
       </c>
       <c r="N41" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O41" t="n">
-        <v>3002.68186226469</v>
+        <v>2910.217578206718</v>
       </c>
       <c r="P41" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q41" t="n">
         <v>3579.063787691152</v>
@@ -7454,7 +7454,7 @@
         <v>2429.248277050267</v>
       </c>
       <c r="Y41" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I42" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J42" t="n">
-        <v>189.1072586765331</v>
+        <v>189.107258676533</v>
       </c>
       <c r="K42" t="n">
-        <v>516.5987258693996</v>
+        <v>254.7781412269467</v>
       </c>
       <c r="L42" t="n">
-        <v>1018.355814754279</v>
+        <v>756.5352301118266</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.813879657795</v>
+        <v>932.9932950153426</v>
       </c>
       <c r="N42" t="n">
         <v>1458.073850755012</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267575</v>
       </c>
       <c r="C43" t="n">
-        <v>431.4725718510433</v>
+        <v>431.4725718510432</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606998</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149821</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H43" t="n">
         <v>107.599577560447</v>
       </c>
       <c r="I43" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J43" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K43" t="n">
         <v>327.3005393838524</v>
@@ -7576,19 +7576,19 @@
         <v>597.6732183469044</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860081</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N43" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O43" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P43" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q43" t="n">
-        <v>1740.305865566708</v>
+        <v>1740.305865566709</v>
       </c>
       <c r="R43" t="n">
         <v>1698.168490014385</v>
@@ -7606,13 +7606,13 @@
         <v>1076.246860426735</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419669</v>
+        <v>875.6316222419667</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961421</v>
+        <v>736.444003196142</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048047</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1830.11296871472</v>
+        <v>1830.112968714719</v>
       </c>
       <c r="C44" t="n">
-        <v>1549.952383626501</v>
+        <v>1549.9523836265</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.488616871943</v>
+        <v>1280.488616871942</v>
       </c>
       <c r="E44" t="n">
-        <v>983.5022961258909</v>
+        <v>983.5022961258901</v>
       </c>
       <c r="F44" t="n">
-        <v>661.3183231884759</v>
+        <v>661.3183231884752</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0095994144067</v>
+        <v>333.0095994144062</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I44" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J44" t="n">
         <v>258.3184179351637</v>
@@ -7652,19 +7652,19 @@
         <v>658.9337917022733</v>
       </c>
       <c r="L44" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M44" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378418</v>
       </c>
       <c r="N44" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O44" t="n">
-        <v>3002.68186226469</v>
+        <v>2910.217578206718</v>
       </c>
       <c r="P44" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q44" t="n">
         <v>3579.063787691152</v>
@@ -7679,19 +7679,19 @@
         <v>3385.031383680126</v>
       </c>
       <c r="U44" t="n">
-        <v>3220.139782368456</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V44" t="n">
-        <v>2977.878826877077</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W44" t="n">
-        <v>2713.912103459156</v>
+        <v>2713.912103459154</v>
       </c>
       <c r="X44" t="n">
-        <v>2429.248277050268</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y44" t="n">
-        <v>2127.910876926649</v>
+        <v>2127.910876926648</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I45" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J45" t="n">
-        <v>189.1072586765331</v>
+        <v>189.107258676533</v>
       </c>
       <c r="K45" t="n">
-        <v>331.1347863280604</v>
+        <v>254.7781412269467</v>
       </c>
       <c r="L45" t="n">
-        <v>465.7599333625158</v>
+        <v>673.7364482210064</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.266011378532</v>
+        <v>1311.242526237022</v>
       </c>
       <c r="N45" t="n">
-        <v>1773.35199170855</v>
+        <v>1981.32850656704</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.934073537138</v>
+        <v>2527.910588395629</v>
       </c>
       <c r="P45" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.515471877372</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.6068229267562</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510418</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642908987</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606981</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F46" t="n">
-        <v>252.9586869149803</v>
+        <v>252.9586869149817</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1435133352147</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H46" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I46" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J46" t="n">
         <v>140.3861891892006</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469042</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860079</v>
+        <v>888.401230386008</v>
       </c>
       <c r="N46" t="n">
         <v>1179.720488909099</v>
@@ -7828,28 +7828,28 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R46" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S46" t="n">
-        <v>1579.351325853403</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T46" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U46" t="n">
-        <v>1242.129416780428</v>
+        <v>1242.129416780429</v>
       </c>
       <c r="V46" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419658</v>
+        <v>875.6316222419666</v>
       </c>
       <c r="X46" t="n">
-        <v>736.444003196141</v>
+        <v>736.4440031961419</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048034</v>
+        <v>604.4533559048044</v>
       </c>
     </row>
   </sheetData>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,16 +8304,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>439.2473567855966</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>164.4750631044432</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>99.63332837600544</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>68.40701148213739</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>68.40701148213739</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>195.9575865439087</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>7.377921277065383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>278.4842992179866</v>
       </c>
       <c r="N21" t="n">
-        <v>325.35466880806</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>332.8722484947162</v>
       </c>
       <c r="N24" t="n">
-        <v>68.40701148213773</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627455</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>206.5250066087099</v>
       </c>
       <c r="M27" t="n">
-        <v>462.2693307588669</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10200,10 +10200,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>68.40701148213773</v>
+        <v>462.2693307588671</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>68.40701148213773</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844684978</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>356.1152667676089</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>68.40701148213773</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>462.2693307588671</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>75.69834844684979</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>230.7471458459407</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>439.2473567855969</v>
       </c>
       <c r="N39" t="n">
-        <v>395.7072411205022</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>356.1152667676084</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>228.400441446259</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>68.40701148213773</v>
+        <v>332.8722484947165</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>324.2629478252264</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>228.400441446259</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>77.12792434455923</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>287.2052120804084</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>344.8531163447328</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>281.1662760230701</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>386.4562703154365</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>303.6793226721569</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8530230257434</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>230.7368224059507</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.4122047556625</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.8270456723531</v>
+        <v>19.1037355826525</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1956975919376</v>
+        <v>128.1956975919375</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.0141872202943</v>
       </c>
       <c r="F13" t="n">
-        <v>24.23130376104982</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>146.5111589513638</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959536</v>
+        <v>103.1522558959535</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.2101389041964</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.1231296267669</v>
+        <v>185.1231296267668</v>
       </c>
       <c r="T13" t="n">
-        <v>202.9965309021385</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2898799627624</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.16487792582</v>
+        <v>198.1648779258199</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>362.3140662372057</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>344.8531163447327</v>
       </c>
       <c r="D14" t="n">
-        <v>334.2632661944081</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>200.1528788837009</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>386.4562703154366</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>213.7052328116067</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>159.4122047556624</v>
       </c>
       <c r="C16" t="n">
-        <v>146.827045672353</v>
+        <v>146.8270456723529</v>
       </c>
       <c r="D16" t="n">
         <v>128.1956975919375</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>126.0141872202943</v>
       </c>
       <c r="F16" t="n">
-        <v>125.0012725966564</v>
+        <v>125.0012725966563</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H16" t="n">
-        <v>132.3826335244177</v>
+        <v>132.3826335244176</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1522558959535</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>202.9965309021384</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8414332948986</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.7178678975532</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>134.3984759051622</v>
       </c>
       <c r="X16" t="n">
-        <v>205.2898799627623</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.70960661133257</v>
+        <v>198.1648779258199</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>60.05633390959155</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.593499619181527</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.8983856031927</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.02071039609275</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>63.60977823708662</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.47117482628147</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>81.88210698528555</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>145.4918852223727</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.7311236859907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>78.68768199000574</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236775</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.59349961918204</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.8983856031927</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>66.80420323236775</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>60.37222063057989</v>
       </c>
       <c r="T31" t="n">
-        <v>78.68768199000505</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.025899448199198e-12</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>962134.4227533943</v>
+        <v>962134.4227533947</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1103091.317266621</v>
+        <v>1103091.31726662</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>319104.7129008707</v>
+        <v>319104.7129008705</v>
       </c>
       <c r="F2" t="n">
         <v>319104.7129008706</v>
       </c>
       <c r="G2" t="n">
-        <v>367897.4840785257</v>
+        <v>367897.4840785256</v>
       </c>
       <c r="H2" t="n">
         <v>367897.4840785259</v>
       </c>
       <c r="I2" t="n">
-        <v>367897.4840785254</v>
+        <v>367897.4840785259</v>
       </c>
       <c r="J2" t="n">
         <v>367897.4840785258</v>
       </c>
       <c r="K2" t="n">
-        <v>367897.4840785258</v>
+        <v>367897.4840785259</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389271</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="M2" t="n">
-        <v>369468.7964389271</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="N2" t="n">
         <v>369468.7964389273</v>
       </c>
       <c r="O2" t="n">
-        <v>369468.7964389269</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="P2" t="n">
         <v>369468.7964389269</v>
@@ -26375,25 +26375,25 @@
         <v>690849.4200146752</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.19548765574</v>
+        <v>49113.19548765571</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012606</v>
+        <v>79395.76294012612</v>
       </c>
       <c r="K3" t="n">
-        <v>4.80213202536106e-11</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591666</v>
+        <v>53995.30968591664</v>
       </c>
       <c r="M3" t="n">
         <v>162917.5281914784</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101987</v>
+        <v>16335.82034101989</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,22 +26424,22 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>61611.64298341455</v>
+        <v>61611.64298341467</v>
       </c>
       <c r="F4" t="n">
-        <v>61611.64298341461</v>
+        <v>61611.64298341467</v>
       </c>
       <c r="G4" t="n">
-        <v>123650.5550834488</v>
+        <v>123650.5550834489</v>
       </c>
       <c r="H4" t="n">
         <v>123650.5550834489</v>
       </c>
       <c r="I4" t="n">
+        <v>123650.5550834489</v>
+      </c>
+      <c r="J4" t="n">
         <v>123650.5550834488</v>
-      </c>
-      <c r="J4" t="n">
-        <v>123650.5550834489</v>
       </c>
       <c r="K4" t="n">
         <v>123650.5550834489</v>
@@ -26476,16 +26476,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70367.55973007937</v>
+        <v>70367.55973007939</v>
       </c>
       <c r="F5" t="n">
         <v>70367.55973007939</v>
       </c>
       <c r="G5" t="n">
+        <v>75528.68126939404</v>
+      </c>
+      <c r="H5" t="n">
         <v>75528.68126939406</v>
-      </c>
-      <c r="H5" t="n">
-        <v>75528.68126939404</v>
       </c>
       <c r="I5" t="n">
         <v>75528.68126939404</v>
@@ -26500,13 +26500,13 @@
         <v>76041.72434256104</v>
       </c>
       <c r="M5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="N5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="O5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="P5" t="n">
         <v>74607.58442655984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80544.85684673727</v>
+        <v>-80544.85684673744</v>
       </c>
       <c r="C6" t="n">
-        <v>224.5746848103081</v>
+        <v>224.5746848103663</v>
       </c>
       <c r="D6" t="n">
-        <v>224.5746848102499</v>
+        <v>224.5746848103663</v>
       </c>
       <c r="E6" t="n">
-        <v>-503723.9098272985</v>
+        <v>-504003.7102913992</v>
       </c>
       <c r="F6" t="n">
-        <v>187125.5101873765</v>
+        <v>186845.7097232762</v>
       </c>
       <c r="G6" t="n">
-        <v>119605.0522380271</v>
+        <v>119596.3227249137</v>
       </c>
       <c r="H6" t="n">
-        <v>168718.247725683</v>
+        <v>168709.5182125696</v>
       </c>
       <c r="I6" t="n">
-        <v>168718.2477256826</v>
+        <v>168709.5182125697</v>
       </c>
       <c r="J6" t="n">
-        <v>89322.48478555681</v>
+        <v>89313.75527244349</v>
       </c>
       <c r="K6" t="n">
-        <v>168718.2477256828</v>
+        <v>168709.5182125696</v>
       </c>
       <c r="L6" t="n">
-        <v>113773.1337345466</v>
+        <v>113773.133734547</v>
       </c>
       <c r="M6" t="n">
-        <v>3066.593711978683</v>
+        <v>3066.5937119788</v>
       </c>
       <c r="N6" t="n">
-        <v>165984.1219034572</v>
+        <v>165984.1219034573</v>
       </c>
       <c r="O6" t="n">
-        <v>149648.301562437</v>
+        <v>149648.3015624373</v>
       </c>
       <c r="P6" t="n">
-        <v>165984.1219034569</v>
+        <v>165984.1219034568</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="G2" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H2" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="I2" t="n">
         <v>81.81126978584454</v>
       </c>
       <c r="J2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="K2" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L2" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M2" t="n">
         <v>87.9139125336707</v>
@@ -26725,7 +26725,7 @@
         <v>87.9139125336707</v>
       </c>
       <c r="P2" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="3">
@@ -26744,13 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="F3" t="n">
         <v>587.8431257275771</v>
       </c>
       <c r="G3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="H3" t="n">
         <v>587.843125727577</v>
@@ -26771,7 +26771,7 @@
         <v>587.843125727577</v>
       </c>
       <c r="N3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="O3" t="n">
         <v>587.843125727577</v>
@@ -26811,25 +26811,25 @@
         <v>918.3537744885972</v>
       </c>
       <c r="J4" t="n">
+        <v>918.3537744885972</v>
+      </c>
+      <c r="K4" t="n">
+        <v>918.3537744885972</v>
+      </c>
+      <c r="L4" t="n">
         <v>918.3537744885971</v>
       </c>
-      <c r="K4" t="n">
-        <v>918.3537744885971</v>
-      </c>
-      <c r="L4" t="n">
-        <v>918.353774488597</v>
-      </c>
       <c r="M4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.765946922788</v>
       </c>
       <c r="N4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.765946922788</v>
       </c>
       <c r="O4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.765946922788</v>
       </c>
       <c r="P4" t="n">
-        <v>894.7659469227881</v>
+        <v>894.765946922788</v>
       </c>
     </row>
   </sheetData>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61.39149435956964</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.526512829121202e-14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20.41977542627486</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.263256414560601e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>67.4941371073958</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.105427357601002e-14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20.41977542627487</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.684341886080801e-14</v>
-      </c>
-      <c r="G2" t="n">
-        <v>61.39149435956967</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20.41977542627484</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.002665031701325e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>67.49413710739583</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.41977542627484</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.7516580451293</v>
+        <v>653.7516580451289</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956967</v>
+        <v>61.39149435956964</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627484</v>
+        <v>20.41977542627486</v>
       </c>
       <c r="P2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,16 +27391,16 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>289.1830869480649</v>
+        <v>134.0654622140365</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,7 +27436,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.497060989136827</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27509,22 +27509,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>185.7330153237046</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>158.8955716431281</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>310.9045062803826</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,25 +27698,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>20.162432268527</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>219.3492500123081</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>119.7495544039028</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>314.2067624875478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,13 +27907,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27941,10 +27941,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>3.186348982803139</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>111.0698783656195</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627478</v>
+        <v>20.4197754262749</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>1.422481774376138</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627485</v>
+        <v>20.4197754262749</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="C20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="D20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="E20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="F20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="G20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="H20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="I20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="T20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="U20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="V20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="W20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="X20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="C22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="D22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="E22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="F22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="G22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="H22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="I22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="J22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="K22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="L22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="M22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="N22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="O22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="P22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="R22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="S22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="T22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="U22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="V22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="W22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="X22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.81126978584454</v>
+        <v>81.81126978584463</v>
       </c>
     </row>
     <row r="23">
@@ -29104,7 +29104,7 @@
         <v>81.81126978584454</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584393</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="24">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="C26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="D26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="E26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="F26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="G26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="H26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="I26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="T26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="U26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="V26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="W26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="X26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="C28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="D28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="E28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="F28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="G28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="H28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="I28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="J28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="K28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="L28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="M28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="N28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="O28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="P28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="R28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="S28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="T28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="U28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="V28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="W28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="X28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.8112697858446</v>
+        <v>81.8112697858445</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.8112697858446</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I32" t="n">
-        <v>87.91391253367075</v>
+        <v>84.28818384994941</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V32" t="n">
-        <v>85.7106656243254</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W32" t="n">
-        <v>87.91391253367075</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.91391253367075</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>87.9139125336707</v>
       </c>
       <c r="X35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367095</v>
       </c>
       <c r="Y35" t="n">
         <v>87.9139125336707</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S38" t="n">
         <v>87.9139125336707</v>
@@ -30280,7 +30280,7 @@
         <v>87.9139125336707</v>
       </c>
       <c r="V38" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367124</v>
       </c>
       <c r="W38" t="n">
         <v>87.9139125336707</v>
@@ -30523,7 +30523,7 @@
         <v>87.9139125336707</v>
       </c>
       <c r="X41" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367095</v>
       </c>
       <c r="Y41" t="n">
         <v>87.9139125336707</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.91391253367063</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
   </sheetData>
@@ -31756,7 +31756,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I11" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J11" t="n">
         <v>200.5726652953606</v>
@@ -31765,16 +31765,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L11" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M11" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N11" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O11" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P11" t="n">
         <v>339.8294523961115</v>
@@ -31786,10 +31786,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S11" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T11" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U11" t="n">
         <v>0.1890550756108789</v>
@@ -31835,43 +31835,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I12" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J12" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K12" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L12" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M12" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N12" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O12" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P12" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q12" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R12" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S12" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T12" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H13" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I13" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J13" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K13" t="n">
         <v>123.1579532262038</v>
@@ -31938,7 +31938,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R13" t="n">
         <v>47.66347704669828</v>
@@ -31950,7 +31950,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I17" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J17" t="n">
         <v>200.5726652953606</v>
@@ -32239,16 +32239,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L17" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M17" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N17" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O17" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P17" t="n">
         <v>339.8294523961115</v>
@@ -32260,10 +32260,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S17" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T17" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U17" t="n">
         <v>0.1890550756108789</v>
@@ -32309,43 +32309,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I18" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J18" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K18" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L18" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M18" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N18" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O18" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P18" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q18" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R18" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S18" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T18" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H19" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I19" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J19" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K19" t="n">
         <v>123.1579532262038</v>
@@ -32412,7 +32412,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R19" t="n">
         <v>47.66347704669828</v>
@@ -32424,7 +32424,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I38" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J38" t="n">
         <v>200.5726652953606</v>
@@ -33898,16 +33898,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L38" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M38" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N38" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O38" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P38" t="n">
         <v>339.8294523961115</v>
@@ -33919,10 +33919,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S38" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T38" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U38" t="n">
         <v>0.1890550756108789</v>
@@ -33968,43 +33968,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I39" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J39" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K39" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L39" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M39" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N39" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O39" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P39" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q39" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R39" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S39" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T39" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,13 +34044,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H40" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I40" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J40" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K40" t="n">
         <v>123.1579532262038</v>
@@ -34071,7 +34071,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R40" t="n">
         <v>47.66347704669828</v>
@@ -34083,7 +34083,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34784,19 +34784,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K11" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L11" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M11" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N11" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O11" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P11" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q11" t="n">
         <v>245.2070669901341</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L12" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M12" t="n">
-        <v>178.2404695995112</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N12" t="n">
-        <v>636.7595080279199</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O12" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P12" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q12" t="n">
-        <v>231.497271491105</v>
+        <v>185.8950468596991</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591625</v>
+        <v>2.005775453591724</v>
       </c>
       <c r="K13" t="n">
-        <v>121.3082368265957</v>
+        <v>121.3082368265958</v>
       </c>
       <c r="L13" t="n">
         <v>205.6095790168991</v>
       </c>
       <c r="M13" t="n">
-        <v>226.1705215179614</v>
+        <v>226.1705215179615</v>
       </c>
       <c r="N13" t="n">
-        <v>226.767740188656</v>
+        <v>226.7677401886561</v>
       </c>
       <c r="O13" t="n">
-        <v>194.8374429929763</v>
+        <v>194.8374429929764</v>
       </c>
       <c r="P13" t="n">
-        <v>145.9059567350975</v>
+        <v>145.9059567350976</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02204415944453</v>
+        <v>23.02204415944464</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>118.7131140633435</v>
+        <v>92.25540709894007</v>
       </c>
       <c r="K15" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L15" t="n">
-        <v>506.8253423079596</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M15" t="n">
-        <v>246.6474810816486</v>
+        <v>643.9455333495112</v>
       </c>
       <c r="N15" t="n">
         <v>197.5121512423233</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591681</v>
+        <v>2.005775453591745</v>
       </c>
       <c r="K16" t="n">
-        <v>121.3082368265958</v>
+        <v>121.3082368265959</v>
       </c>
       <c r="L16" t="n">
-        <v>205.6095790168991</v>
+        <v>205.6095790168992</v>
       </c>
       <c r="M16" t="n">
         <v>226.1705215179615</v>
@@ -35817,13 +35817,13 @@
         <v>226.7677401886561</v>
       </c>
       <c r="O16" t="n">
-        <v>194.8374429929763</v>
+        <v>194.8374429929764</v>
       </c>
       <c r="P16" t="n">
-        <v>145.9059567350975</v>
+        <v>145.9059567350976</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.0220441594446</v>
+        <v>23.02204415944465</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.623375940748</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K17" t="n">
-        <v>404.6619937041512</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L17" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M17" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N17" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O17" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P17" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q17" t="n">
         <v>245.2070669901341</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L18" t="n">
-        <v>506.8253423079596</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M18" t="n">
-        <v>178.2404695995112</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N18" t="n">
-        <v>265.9191627244606</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O18" t="n">
         <v>552.1031129581706</v>
@@ -35981,7 +35981,7 @@
         <v>425.9366065834112</v>
       </c>
       <c r="Q18" t="n">
-        <v>231.497271491105</v>
+        <v>217.3775702991645</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.39726981316136</v>
+        <v>63.39726981316137</v>
       </c>
       <c r="K19" t="n">
         <v>182.6997311861655</v>
@@ -36060,7 +36060,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.41353851901427</v>
+        <v>84.41353851901428</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K21" t="n">
         <v>330.7994618109763</v>
@@ -36206,13 +36206,13 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M21" t="n">
-        <v>643.9455333495109</v>
+        <v>456.7247688174977</v>
       </c>
       <c r="N21" t="n">
-        <v>522.8668200503831</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O21" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P21" t="n">
         <v>425.9366065834112</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.39726981316137</v>
+        <v>63.39726981316146</v>
       </c>
       <c r="K22" t="n">
-        <v>182.6997311861655</v>
+        <v>182.6997311861656</v>
       </c>
       <c r="L22" t="n">
-        <v>267.0010733764688</v>
+        <v>267.0010733764689</v>
       </c>
       <c r="M22" t="n">
         <v>287.5620158775312</v>
@@ -36291,13 +36291,13 @@
         <v>288.1592345482258</v>
       </c>
       <c r="O22" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525461</v>
       </c>
       <c r="P22" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.41353851901428</v>
+        <v>84.41353851901437</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K24" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L24" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M24" t="n">
-        <v>178.2404695995111</v>
+        <v>511.1127180942273</v>
       </c>
       <c r="N24" t="n">
-        <v>265.9191627244609</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O24" t="n">
         <v>552.1031129581706</v>
@@ -36607,7 +36607,7 @@
         <v>629.6034830521205</v>
       </c>
       <c r="O26" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P26" t="n">
         <v>430.3951648123246</v>
@@ -36677,19 +36677,19 @@
         <v>330.7994618109763</v>
       </c>
       <c r="L27" t="n">
-        <v>506.8253423079595</v>
+        <v>342.5100036132103</v>
       </c>
       <c r="M27" t="n">
-        <v>640.509800358378</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N27" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O27" t="n">
         <v>158.2407936814411</v>
       </c>
       <c r="P27" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q27" t="n">
         <v>231.497271491105</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316143</v>
+        <v>63.39726981316133</v>
       </c>
       <c r="K28" t="n">
         <v>182.6997311861655</v>
       </c>
       <c r="L28" t="n">
-        <v>267.0010733764689</v>
+        <v>267.0010733764688</v>
       </c>
       <c r="M28" t="n">
-        <v>287.5620158775312</v>
+        <v>287.5620158775311</v>
       </c>
       <c r="N28" t="n">
-        <v>288.1592345482258</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O28" t="n">
-        <v>256.2289373525461</v>
+        <v>256.228937352546</v>
       </c>
       <c r="P28" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.41353851901434</v>
+        <v>84.41353851901424</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>178.2404695995111</v>
       </c>
       <c r="N30" t="n">
-        <v>265.9191627244609</v>
+        <v>659.7814820011903</v>
       </c>
       <c r="O30" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P30" t="n">
         <v>425.9366065834112</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.39726981316143</v>
+        <v>63.39726981316137</v>
       </c>
       <c r="K31" t="n">
         <v>182.6997311861655</v>
       </c>
       <c r="L31" t="n">
-        <v>267.0010733764689</v>
+        <v>267.0010733764688</v>
       </c>
       <c r="M31" t="n">
         <v>287.5620158775312</v>
@@ -37002,13 +37002,13 @@
         <v>288.1592345482258</v>
       </c>
       <c r="O31" t="n">
-        <v>256.2289373525461</v>
+        <v>256.228937352546</v>
       </c>
       <c r="P31" t="n">
-        <v>207.2974510946673</v>
+        <v>207.2974510946672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.41353851901434</v>
+        <v>84.41353851901428</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M33" t="n">
-        <v>246.6474810816488</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N33" t="n">
-        <v>197.5121512423232</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O33" t="n">
         <v>552.1031129581706</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098758</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K34" t="n">
-        <v>188.8023739339917</v>
+        <v>188.8023739339916</v>
       </c>
       <c r="L34" t="n">
         <v>273.103716124295</v>
@@ -37245,7 +37245,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684049</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>188.6233759407481</v>
+        <v>95.22510921552409</v>
       </c>
       <c r="K35" t="n">
         <v>404.6619937041511</v>
@@ -37312,7 +37312,7 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M35" t="n">
-        <v>540.7242466073207</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N35" t="n">
         <v>629.6034830521205</v>
@@ -37391,13 +37391,13 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M36" t="n">
-        <v>246.6474810816488</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N36" t="n">
-        <v>197.5121512423232</v>
+        <v>659.7814820011903</v>
       </c>
       <c r="O36" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P36" t="n">
         <v>425.9366065834112</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>95.22510921552413</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K38" t="n">
-        <v>404.6619937041512</v>
+        <v>311.2637269789271</v>
       </c>
       <c r="L38" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M38" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N38" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O38" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P38" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q38" t="n">
         <v>245.2070669901341</v>
@@ -37622,25 +37622,25 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K39" t="n">
-        <v>66.33422479839768</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L39" t="n">
-        <v>506.8253423079596</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M39" t="n">
-        <v>643.9455333495112</v>
+        <v>617.487826385108</v>
       </c>
       <c r="N39" t="n">
-        <v>593.2193923628255</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O39" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P39" t="n">
-        <v>107.4738379434741</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.41998375525588</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K40" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L40" t="n">
-        <v>273.103716124295</v>
+        <v>273.1037161242949</v>
       </c>
       <c r="M40" t="n">
         <v>293.6646586253573</v>
@@ -37719,7 +37719,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684045</v>
+        <v>90.51618126684043</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M41" t="n">
-        <v>634.1225133325443</v>
+        <v>540.7242466073202</v>
       </c>
       <c r="N41" t="n">
         <v>629.6034830521205</v>
@@ -37795,7 +37795,7 @@
         <v>548.8726369764648</v>
       </c>
       <c r="P41" t="n">
-        <v>336.9968980871009</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q41" t="n">
         <v>245.2070669901341</v>
@@ -37859,7 +37859,7 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K42" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L42" t="n">
         <v>506.8253423079595</v>
@@ -37868,7 +37868,7 @@
         <v>178.2404695995111</v>
       </c>
       <c r="N42" t="n">
-        <v>265.9191627244609</v>
+        <v>530.3843997370396</v>
       </c>
       <c r="O42" t="n">
         <v>552.1031129581706</v>
@@ -38020,7 +38020,7 @@
         <v>404.6619937041511</v>
       </c>
       <c r="L44" t="n">
-        <v>554.8236601362606</v>
+        <v>461.4253934110366</v>
       </c>
       <c r="M44" t="n">
         <v>634.1225133325443</v>
@@ -38032,7 +38032,7 @@
         <v>548.8726369764648</v>
       </c>
       <c r="P44" t="n">
-        <v>336.9968980871009</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q44" t="n">
         <v>245.2070669901341</v>
@@ -38096,10 +38096,10 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K45" t="n">
-        <v>143.4621491429569</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L45" t="n">
-        <v>135.9849970045004</v>
+        <v>423.1902090849088</v>
       </c>
       <c r="M45" t="n">
         <v>643.9455333495109</v>
@@ -38114,7 +38114,7 @@
         <v>107.473837943474</v>
       </c>
       <c r="Q45" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098745</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K46" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L46" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M46" t="n">
-        <v>293.6646586253572</v>
+        <v>293.6646586253573</v>
       </c>
       <c r="N46" t="n">
-        <v>294.2618772960518</v>
+        <v>294.2618772960519</v>
       </c>
       <c r="O46" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P46" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684036</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
